--- a/Excels/327033846.xlsx
+++ b/Excels/327033846.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="524">
   <si>
     <t>آیدی</t>
   </si>
@@ -809,7 +809,7 @@
     <t>18:2:51</t>
   </si>
   <si>
-    <t>ناخوانا</t>
+    <t>شکر</t>
   </si>
   <si>
     <t>102</t>
@@ -839,7 +839,751 @@
     <t>18:31:5</t>
   </si>
   <si>
-    <t>بابت چسپ ۵ سانت</t>
+    <t>بابت چسپ ۵ سانت برای مهد کودک</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>20:6:18</t>
+  </si>
+  <si>
+    <t>بابت بازپرداخت هزینه‌هایی که شخصا برای قسمت مهدکودک خواهران کرده‌اند.</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>8 مرداد 1401</t>
+  </si>
+  <si>
+    <t>14:15:42</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>14:17:39</t>
+  </si>
+  <si>
+    <t>کپی عطر سیب (تدارکات)</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>14:20:1</t>
+  </si>
+  <si>
+    <t>نان جهت تدارکات خدام</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>14:20:43</t>
+  </si>
+  <si>
+    <t>بنزین وانت</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>3750000</t>
+  </si>
+  <si>
+    <t>14:30:48</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>20800000</t>
+  </si>
+  <si>
+    <t>14:31:25</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>960000</t>
+  </si>
+  <si>
+    <t>14:32:30</t>
+  </si>
+  <si>
+    <t>پنیر برای تدارکات خدام</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>4200000</t>
+  </si>
+  <si>
+    <t>14:32:57</t>
+  </si>
+  <si>
+    <t>رب ۱۲ عدد</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>14:33:30</t>
+  </si>
+  <si>
+    <t>مایع دست</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>14080000</t>
+  </si>
+  <si>
+    <t>14:34:31</t>
+  </si>
+  <si>
+    <t>نوشابه جهت تدارکات خدام</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>14:35:31</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>9 مرداد 1401</t>
+  </si>
+  <si>
+    <t>17:25:56</t>
+  </si>
+  <si>
+    <t>تاید و اسکاچ</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>17:30:31</t>
+  </si>
+  <si>
+    <t>پارکینگ برای برنج</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>17:31:49</t>
+  </si>
+  <si>
+    <t>یخ</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>493920</t>
+  </si>
+  <si>
+    <t>17:34:37</t>
+  </si>
+  <si>
+    <t>سبزی</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>17:36:2</t>
+  </si>
+  <si>
+    <t>دو کارتن بیسکوئیت</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>30750000</t>
+  </si>
+  <si>
+    <t>17:38:28</t>
+  </si>
+  <si>
+    <t>شنیتسل و سس کچاب تک‌نفره</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>14885000</t>
+  </si>
+  <si>
+    <t>17:40:26</t>
+  </si>
+  <si>
+    <t>لیوان کاغذی، پیشدستی و لانچ</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>14250000</t>
+  </si>
+  <si>
+    <t>17:41:33</t>
+  </si>
+  <si>
+    <t>پنیر، کره و مربای تک نفره</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>3600000</t>
+  </si>
+  <si>
+    <t>17:42:56</t>
+  </si>
+  <si>
+    <t>شربت سن‌ایچ ۳ عدد</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>4273500</t>
+  </si>
+  <si>
+    <t>17:44:32</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>7400000</t>
+  </si>
+  <si>
+    <t>17:45:53</t>
+  </si>
+  <si>
+    <t>بیسکوئیت پذیرایی و بیسکوئیت مادر</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>7381500</t>
+  </si>
+  <si>
+    <t>17:49:55</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>17:51:0</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>4600000</t>
+  </si>
+  <si>
+    <t>17:53:36</t>
+  </si>
+  <si>
+    <t>لیوان کاغذی</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>2800000</t>
+  </si>
+  <si>
+    <t>17:54:33</t>
+  </si>
+  <si>
+    <t>بیسکوئیت مادر</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>150000000</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>10 مرداد 1401</t>
+  </si>
+  <si>
+    <t>13:34:43</t>
+  </si>
+  <si>
+    <t>بابت خرید‌های تدارکات</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>11 مرداد 1401</t>
+  </si>
+  <si>
+    <t>12:36:54</t>
+  </si>
+  <si>
+    <t>برای خریدهای تدارکات</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>5190000</t>
+  </si>
+  <si>
+    <t>16:43:59</t>
+  </si>
+  <si>
+    <t>بابت دستمال کاغذی و ماسک برای مراسم</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>3494883</t>
+  </si>
+  <si>
+    <t>12 مرداد 1401</t>
+  </si>
+  <si>
+    <t>10:5:17</t>
+  </si>
+  <si>
+    <t>سن‌ایچ و خیارشور</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>527000</t>
+  </si>
+  <si>
+    <t>10:6:3</t>
+  </si>
+  <si>
+    <t>گوجه برای تدارکات</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>2340000</t>
+  </si>
+  <si>
+    <t>10:6:36</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>10:12:13</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>8250000</t>
+  </si>
+  <si>
+    <t>10:13:51</t>
+  </si>
+  <si>
+    <t>بطری و درب بطری</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>58000000</t>
+  </si>
+  <si>
+    <t>10:18:42</t>
+  </si>
+  <si>
+    <t>کیک دوقلو (پول به دلیل قطعی سیستم کارت به کارت شده و رسید پوز ندارد)</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>5760000</t>
+  </si>
+  <si>
+    <t>10:30:55</t>
+  </si>
+  <si>
+    <t>نوشابه برای تدارکات خدام</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>730000</t>
+  </si>
+  <si>
+    <t>10:32:42</t>
+  </si>
+  <si>
+    <t>گلاب و دارچین</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>13880000</t>
+  </si>
+  <si>
+    <t>10:34:39</t>
+  </si>
+  <si>
+    <t>نایلون (به دلیل قطعی سیستم به صورت کارت به کارت بوده و رسید پوز ندارد)</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>10:36:18</t>
+  </si>
+  <si>
+    <t>کیک دوقلو (به دلیل قطعی سیستم به صورت کارت به کارت بوده و رسید پوز ندارد)</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>10:37:32</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>28080000</t>
+  </si>
+  <si>
+    <t>10:38:32</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>10:39:28</t>
+  </si>
+  <si>
+    <t>پارچ و فندک</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>2200000</t>
+  </si>
+  <si>
+    <t>10:41:2</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>70000000</t>
+  </si>
+  <si>
+    <t>14:7:46</t>
+  </si>
+  <si>
+    <t>جهت خرید‌های تدارکات</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>3259146</t>
+  </si>
+  <si>
+    <t>13 مرداد 1401</t>
+  </si>
+  <si>
+    <t>16:20:43</t>
+  </si>
+  <si>
+    <t>خیارشور برای تدارکات خدام</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>46740000</t>
+  </si>
+  <si>
+    <t>16:26:31</t>
+  </si>
+  <si>
+    <t>خورشتی سفید با درب و فریزری (به دلیل قطعی سیستم کارت به کارت شده و رسید پوز ندارد)</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>16:30:26</t>
+  </si>
+  <si>
+    <t>کیک</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>36590000</t>
+  </si>
+  <si>
+    <t>16:36:9</t>
+  </si>
+  <si>
+    <t>شنیسل و سس کچاپ تک‌نفره برای تدارکات خدام</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>1890000</t>
+  </si>
+  <si>
+    <t>16:39:42</t>
+  </si>
+  <si>
+    <t>گوجه برای تدارکات خدام</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>16:42:15</t>
+  </si>
+  <si>
+    <t>نان برای تدارکات خدام</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>18:43:39</t>
+  </si>
+  <si>
+    <t>بابت هزینه‌هایی که شخصا در قسمت مراسم کرده‌اند</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>130000000</t>
+  </si>
+  <si>
+    <t>18:56:35</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>12750000</t>
+  </si>
+  <si>
+    <t>15 مرداد 1401</t>
+  </si>
+  <si>
+    <t>17:33:23</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>15600000</t>
+  </si>
+  <si>
+    <t>17:34:54</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>1111500</t>
+  </si>
+  <si>
+    <t>17:42:7</t>
+  </si>
+  <si>
+    <t>بنزین برای وانت</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>17:43:14</t>
+  </si>
+  <si>
+    <t>گوجه</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>320000</t>
+  </si>
+  <si>
+    <t>17:44:3</t>
+  </si>
+  <si>
+    <t>اسپری زنگ سبز</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>1400000</t>
+  </si>
+  <si>
+    <t>17:44:52</t>
+  </si>
+  <si>
+    <t>قند</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>4560000</t>
+  </si>
+  <si>
+    <t>17:46:33</t>
+  </si>
+  <si>
+    <t>پنیر برای صبحانه خدام</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>10950000</t>
+  </si>
+  <si>
+    <t>17:47:43</t>
+  </si>
+  <si>
+    <t>تخم مرغ</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>37200000</t>
+  </si>
+  <si>
+    <t>17:49:8</t>
+  </si>
+  <si>
+    <t>لیوان کاغذی و پلاستیکی</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>17:50:51</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>17:52:5</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>38220000</t>
+  </si>
+  <si>
+    <t>18:8:12</t>
+  </si>
+  <si>
+    <t>فوم تک‌پرس و نایلکس (پول کارت به کارت شده)</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>1560000</t>
+  </si>
+  <si>
+    <t>18:10:33</t>
+  </si>
+  <si>
+    <t>پیشدستی ۲۰۰ عدد</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>18:12:9</t>
+  </si>
+  <si>
+    <t>بطری و درب آن</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>18:13:45</t>
+  </si>
+  <si>
+    <t>دبه ۱۰ لیتری ۲ عدد</t>
+  </si>
+  <si>
+    <t>7800000</t>
+  </si>
+  <si>
+    <t>18:15:11</t>
+  </si>
+  <si>
+    <t>تنظیف</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>19:4:27</t>
+  </si>
+  <si>
+    <t>بابت هزینه‌های تدارکات</t>
   </si>
 </sst>
 </file>
@@ -884,7 +1628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2596,7 +3340,7 @@
         <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
         <v>207</v>
@@ -2631,7 +3375,7 @@
         <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
         <v>211</v>
@@ -2666,7 +3410,7 @@
         <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
         <v>215</v>
@@ -2701,7 +3445,7 @@
         <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
         <v>219</v>
@@ -2736,7 +3480,7 @@
         <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
         <v>223</v>
@@ -2771,7 +3515,7 @@
         <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
         <v>227</v>
@@ -2806,7 +3550,7 @@
         <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
         <v>115</v>
@@ -2841,7 +3585,7 @@
         <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
         <v>234</v>
@@ -2876,7 +3620,7 @@
         <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
         <v>238</v>
@@ -2946,7 +3690,7 @@
         <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
         <v>247</v>
@@ -2981,7 +3725,7 @@
         <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
         <v>198</v>
@@ -3016,7 +3760,7 @@
         <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
         <v>253</v>
@@ -3051,7 +3795,7 @@
         <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
         <v>257</v>
@@ -3086,7 +3830,7 @@
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
         <v>261</v>
@@ -3121,7 +3865,7 @@
         <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
         <v>265</v>
@@ -3156,7 +3900,7 @@
         <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s">
         <v>269</v>
@@ -3191,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s">
         <v>272</v>
@@ -3226,12 +3970,2462 @@
         <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s">
         <v>275</v>
       </c>
       <c r="K67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" t="s">
+        <v>245</v>
+      </c>
+      <c r="G68" t="s">
+        <v>277</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J68" t="s">
+        <v>278</v>
+      </c>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>279</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>280</v>
+      </c>
+      <c r="G69" t="s">
+        <v>281</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>87</v>
+      </c>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>283</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" t="s">
+        <v>284</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s">
+        <v>285</v>
+      </c>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" t="s">
+        <v>287</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>288</v>
+      </c>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>280</v>
+      </c>
+      <c r="G72" t="s">
+        <v>290</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s">
+        <v>291</v>
+      </c>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>293</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>280</v>
+      </c>
+      <c r="G73" t="s">
+        <v>294</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s">
+        <v>261</v>
+      </c>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" t="s">
+        <v>297</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>269</v>
+      </c>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>299</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>280</v>
+      </c>
+      <c r="G75" t="s">
+        <v>300</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s">
+        <v>301</v>
+      </c>
+      <c r="K75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>303</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>280</v>
+      </c>
+      <c r="G76" t="s">
+        <v>304</v>
+      </c>
+      <c r="H76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s">
+        <v>305</v>
+      </c>
+      <c r="K76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>280</v>
+      </c>
+      <c r="G77" t="s">
+        <v>307</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s">
+        <v>308</v>
+      </c>
+      <c r="K77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>280</v>
+      </c>
+      <c r="G78" t="s">
+        <v>311</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s">
+        <v>312</v>
+      </c>
+      <c r="K78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>280</v>
+      </c>
+      <c r="G79" t="s">
+        <v>314</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s">
+        <v>67</v>
+      </c>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>315</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G80" t="s">
+        <v>317</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>318</v>
+      </c>
+      <c r="K80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>319</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>320</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>316</v>
+      </c>
+      <c r="G81" t="s">
+        <v>321</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s">
+        <v>322</v>
+      </c>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>323</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>316</v>
+      </c>
+      <c r="G82" t="s">
+        <v>324</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>325</v>
+      </c>
+      <c r="K82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>326</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>316</v>
+      </c>
+      <c r="G83" t="s">
+        <v>328</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s">
+        <v>329</v>
+      </c>
+      <c r="K83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>330</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>225</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>316</v>
+      </c>
+      <c r="G84" t="s">
+        <v>331</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s">
+        <v>332</v>
+      </c>
+      <c r="K84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>334</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>316</v>
+      </c>
+      <c r="G85" t="s">
+        <v>335</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s">
+        <v>336</v>
+      </c>
+      <c r="K85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>337</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>316</v>
+      </c>
+      <c r="G86" t="s">
+        <v>339</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>340</v>
+      </c>
+      <c r="K86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>341</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>342</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>316</v>
+      </c>
+      <c r="G87" t="s">
+        <v>343</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s">
+        <v>344</v>
+      </c>
+      <c r="K87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>345</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>346</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>316</v>
+      </c>
+      <c r="G88" t="s">
+        <v>347</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s">
+        <v>348</v>
+      </c>
+      <c r="K88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>349</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>350</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>316</v>
+      </c>
+      <c r="G89" t="s">
+        <v>351</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>257</v>
+      </c>
+      <c r="K89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>352</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>353</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>316</v>
+      </c>
+      <c r="G90" t="s">
+        <v>354</v>
+      </c>
+      <c r="H90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s">
+        <v>355</v>
+      </c>
+      <c r="K90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>356</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>357</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>316</v>
+      </c>
+      <c r="G91" t="s">
+        <v>358</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
+        <v>257</v>
+      </c>
+      <c r="K91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>359</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>316</v>
+      </c>
+      <c r="G92" t="s">
+        <v>360</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s">
+        <v>247</v>
+      </c>
+      <c r="K92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>362</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>316</v>
+      </c>
+      <c r="G93" t="s">
+        <v>363</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s">
+        <v>364</v>
+      </c>
+      <c r="K93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>365</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>366</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>316</v>
+      </c>
+      <c r="G94" t="s">
+        <v>367</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s">
+        <v>368</v>
+      </c>
+      <c r="K94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>369</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>370</v>
+      </c>
+      <c r="E95" t="s">
+        <v>371</v>
+      </c>
+      <c r="F95" t="s">
+        <v>372</v>
+      </c>
+      <c r="G95" t="s">
+        <v>373</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+      <c r="J95" t="s">
+        <v>374</v>
+      </c>
+      <c r="K95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>375</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>370</v>
+      </c>
+      <c r="E96" t="s">
+        <v>371</v>
+      </c>
+      <c r="F96" t="s">
+        <v>376</v>
+      </c>
+      <c r="G96" t="s">
+        <v>377</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+      <c r="J96" t="s">
+        <v>378</v>
+      </c>
+      <c r="K96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>379</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>380</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>376</v>
+      </c>
+      <c r="G97" t="s">
+        <v>381</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" t="s">
+        <v>382</v>
+      </c>
+      <c r="K97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>383</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>384</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>385</v>
+      </c>
+      <c r="G98" t="s">
+        <v>386</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s">
+        <v>387</v>
+      </c>
+      <c r="K98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>388</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>389</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>385</v>
+      </c>
+      <c r="G99" t="s">
+        <v>390</v>
+      </c>
+      <c r="H99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s">
+        <v>391</v>
+      </c>
+      <c r="K99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>392</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>393</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s">
+        <v>385</v>
+      </c>
+      <c r="G100" t="s">
+        <v>394</v>
+      </c>
+      <c r="H100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s">
+        <v>198</v>
+      </c>
+      <c r="K100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>395</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>296</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s">
+        <v>385</v>
+      </c>
+      <c r="G101" t="s">
+        <v>396</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s">
+        <v>269</v>
+      </c>
+      <c r="K101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>397</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>398</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>385</v>
+      </c>
+      <c r="G102" t="s">
+        <v>399</v>
+      </c>
+      <c r="H102" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" t="s">
+        <v>400</v>
+      </c>
+      <c r="K102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>401</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>402</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" t="s">
+        <v>385</v>
+      </c>
+      <c r="G103" t="s">
+        <v>403</v>
+      </c>
+      <c r="H103" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s">
+        <v>404</v>
+      </c>
+      <c r="K103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>405</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>406</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" t="s">
+        <v>385</v>
+      </c>
+      <c r="G104" t="s">
+        <v>407</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s">
+        <v>408</v>
+      </c>
+      <c r="K104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>409</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>410</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" t="s">
+        <v>385</v>
+      </c>
+      <c r="G105" t="s">
+        <v>411</v>
+      </c>
+      <c r="H105" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s">
+        <v>412</v>
+      </c>
+      <c r="K105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>413</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>414</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>385</v>
+      </c>
+      <c r="G106" t="s">
+        <v>415</v>
+      </c>
+      <c r="H106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>18</v>
+      </c>
+      <c r="J106" t="s">
+        <v>416</v>
+      </c>
+      <c r="K106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>417</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>229</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>385</v>
+      </c>
+      <c r="G107" t="s">
+        <v>418</v>
+      </c>
+      <c r="H107" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s">
+        <v>419</v>
+      </c>
+      <c r="K107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>420</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>263</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" t="s">
+        <v>385</v>
+      </c>
+      <c r="G108" t="s">
+        <v>421</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s">
+        <v>265</v>
+      </c>
+      <c r="K108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>422</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>423</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" t="s">
+        <v>385</v>
+      </c>
+      <c r="G109" t="s">
+        <v>424</v>
+      </c>
+      <c r="H109" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s">
+        <v>408</v>
+      </c>
+      <c r="K109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>425</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>93</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" t="s">
+        <v>385</v>
+      </c>
+      <c r="G110" t="s">
+        <v>426</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s">
+        <v>427</v>
+      </c>
+      <c r="K110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>428</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>429</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" t="s">
+        <v>385</v>
+      </c>
+      <c r="G111" t="s">
+        <v>430</v>
+      </c>
+      <c r="H111" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>431</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>432</v>
+      </c>
+      <c r="E112" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112" t="s">
+        <v>385</v>
+      </c>
+      <c r="G112" t="s">
+        <v>433</v>
+      </c>
+      <c r="H112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" t="s">
+        <v>124</v>
+      </c>
+      <c r="J112" t="s">
+        <v>434</v>
+      </c>
+      <c r="K112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>435</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>436</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>437</v>
+      </c>
+      <c r="G113" t="s">
+        <v>438</v>
+      </c>
+      <c r="H113" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" t="s">
+        <v>439</v>
+      </c>
+      <c r="K113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>440</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>441</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>437</v>
+      </c>
+      <c r="G114" t="s">
+        <v>442</v>
+      </c>
+      <c r="H114" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>18</v>
+      </c>
+      <c r="J114" t="s">
+        <v>443</v>
+      </c>
+      <c r="K114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>444</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>402</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s">
+        <v>437</v>
+      </c>
+      <c r="G115" t="s">
+        <v>445</v>
+      </c>
+      <c r="H115" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>18</v>
+      </c>
+      <c r="J115" t="s">
+        <v>446</v>
+      </c>
+      <c r="K115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>447</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>448</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" t="s">
+        <v>437</v>
+      </c>
+      <c r="G116" t="s">
+        <v>449</v>
+      </c>
+      <c r="H116" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" t="s">
+        <v>450</v>
+      </c>
+      <c r="K116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>451</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>452</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" t="s">
+        <v>437</v>
+      </c>
+      <c r="G117" t="s">
+        <v>453</v>
+      </c>
+      <c r="H117" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" t="s">
+        <v>454</v>
+      </c>
+      <c r="K117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>455</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>437</v>
+      </c>
+      <c r="G118" t="s">
+        <v>456</v>
+      </c>
+      <c r="H118" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" t="s">
+        <v>457</v>
+      </c>
+      <c r="K118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>458</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>380</v>
+      </c>
+      <c r="E119" t="s">
+        <v>122</v>
+      </c>
+      <c r="F119" t="s">
+        <v>437</v>
+      </c>
+      <c r="G119" t="s">
+        <v>459</v>
+      </c>
+      <c r="H119" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>124</v>
+      </c>
+      <c r="J119" t="s">
+        <v>460</v>
+      </c>
+      <c r="K119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>461</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>462</v>
+      </c>
+      <c r="E120" t="s">
+        <v>122</v>
+      </c>
+      <c r="F120" t="s">
+        <v>437</v>
+      </c>
+      <c r="G120" t="s">
+        <v>463</v>
+      </c>
+      <c r="H120" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>124</v>
+      </c>
+      <c r="J120" t="s">
+        <v>374</v>
+      </c>
+      <c r="K120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>464</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>465</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" t="s">
+        <v>466</v>
+      </c>
+      <c r="G121" t="s">
+        <v>467</v>
+      </c>
+      <c r="H121" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" t="s">
+        <v>198</v>
+      </c>
+      <c r="K121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>468</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>469</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s">
+        <v>466</v>
+      </c>
+      <c r="G122" t="s">
+        <v>470</v>
+      </c>
+      <c r="H122" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" t="s">
+        <v>198</v>
+      </c>
+      <c r="K122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>471</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
+        <v>472</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" t="s">
+        <v>466</v>
+      </c>
+      <c r="G123" t="s">
+        <v>473</v>
+      </c>
+      <c r="H123" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>18</v>
+      </c>
+      <c r="J123" t="s">
+        <v>474</v>
+      </c>
+      <c r="K123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>475</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>117</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" t="s">
+        <v>466</v>
+      </c>
+      <c r="G124" t="s">
+        <v>476</v>
+      </c>
+      <c r="H124" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" t="s">
+        <v>477</v>
+      </c>
+      <c r="K124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>478</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>479</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" t="s">
+        <v>466</v>
+      </c>
+      <c r="G125" t="s">
+        <v>480</v>
+      </c>
+      <c r="H125" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" t="s">
+        <v>481</v>
+      </c>
+      <c r="K125" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>482</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>483</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>466</v>
+      </c>
+      <c r="G126" t="s">
+        <v>484</v>
+      </c>
+      <c r="H126" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" t="s">
+        <v>485</v>
+      </c>
+      <c r="K126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>486</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>487</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" t="s">
+        <v>466</v>
+      </c>
+      <c r="G127" t="s">
+        <v>488</v>
+      </c>
+      <c r="H127" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" t="s">
+        <v>489</v>
+      </c>
+      <c r="K127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>490</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>491</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" t="s">
+        <v>466</v>
+      </c>
+      <c r="G128" t="s">
+        <v>492</v>
+      </c>
+      <c r="H128" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" t="s">
+        <v>18</v>
+      </c>
+      <c r="J128" t="s">
+        <v>493</v>
+      </c>
+      <c r="K128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>494</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>495</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" t="s">
+        <v>466</v>
+      </c>
+      <c r="G129" t="s">
+        <v>496</v>
+      </c>
+      <c r="H129" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" t="s">
+        <v>18</v>
+      </c>
+      <c r="J129" t="s">
+        <v>497</v>
+      </c>
+      <c r="K129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>498</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>398</v>
+      </c>
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" t="s">
+        <v>466</v>
+      </c>
+      <c r="G130" t="s">
+        <v>499</v>
+      </c>
+      <c r="H130" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" t="s">
+        <v>400</v>
+      </c>
+      <c r="K130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>500</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>466</v>
+      </c>
+      <c r="G131" t="s">
+        <v>501</v>
+      </c>
+      <c r="H131" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" t="s">
+        <v>18</v>
+      </c>
+      <c r="J131" t="s">
+        <v>493</v>
+      </c>
+      <c r="K131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>502</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>503</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" t="s">
+        <v>466</v>
+      </c>
+      <c r="G132" t="s">
+        <v>504</v>
+      </c>
+      <c r="H132" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" t="s">
+        <v>505</v>
+      </c>
+      <c r="K132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>506</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>507</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" t="s">
+        <v>466</v>
+      </c>
+      <c r="G133" t="s">
+        <v>508</v>
+      </c>
+      <c r="H133" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" t="s">
+        <v>18</v>
+      </c>
+      <c r="J133" t="s">
+        <v>509</v>
+      </c>
+      <c r="K133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>510</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>398</v>
+      </c>
+      <c r="E134" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" t="s">
+        <v>466</v>
+      </c>
+      <c r="G134" t="s">
+        <v>511</v>
+      </c>
+      <c r="H134" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" t="s">
+        <v>512</v>
+      </c>
+      <c r="K134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>513</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>514</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" t="s">
+        <v>466</v>
+      </c>
+      <c r="G135" t="s">
+        <v>515</v>
+      </c>
+      <c r="H135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" t="s">
+        <v>18</v>
+      </c>
+      <c r="J135" t="s">
+        <v>516</v>
+      </c>
+      <c r="K135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>517</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" t="s">
+        <v>466</v>
+      </c>
+      <c r="G136" t="s">
+        <v>518</v>
+      </c>
+      <c r="H136" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" t="s">
+        <v>519</v>
+      </c>
+      <c r="K136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>520</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>521</v>
+      </c>
+      <c r="E137" t="s">
+        <v>122</v>
+      </c>
+      <c r="F137" t="s">
+        <v>466</v>
+      </c>
+      <c r="G137" t="s">
+        <v>522</v>
+      </c>
+      <c r="H137" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" t="s">
+        <v>124</v>
+      </c>
+      <c r="J137" t="s">
+        <v>523</v>
+      </c>
+      <c r="K137" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Excels/327033846.xlsx
+++ b/Excels/327033846.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="556">
   <si>
     <t>آیدی</t>
   </si>
@@ -548,7 +548,7 @@
     <t>18:27:28</t>
   </si>
   <si>
-    <t>ذغال و عود</t>
+    <t>دستما و عود</t>
   </si>
   <si>
     <t>68</t>
@@ -1584,6 +1584,102 @@
   </si>
   <si>
     <t>بابت هزینه‌های تدارکات</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>16790000</t>
+  </si>
+  <si>
+    <t>18 مرداد 1401</t>
+  </si>
+  <si>
+    <t>17:51:36</t>
+  </si>
+  <si>
+    <t>کوکاکولا برای تدارکات خدام</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>520000</t>
+  </si>
+  <si>
+    <t>17:53:37</t>
+  </si>
+  <si>
+    <t>نامعلوم</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>2600000</t>
+  </si>
+  <si>
+    <t>17:55:47</t>
+  </si>
+  <si>
+    <t>دستکش لاتکس برای تدارکات</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>3570000</t>
+  </si>
+  <si>
+    <t>17:57:24</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>62500000</t>
+  </si>
+  <si>
+    <t>18:0:7</t>
+  </si>
+  <si>
+    <t>فوم تک‌پرس و قاشق یکبارمصرف (قسمتی از پول کارت به کارت شده)</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>18:5:11</t>
+  </si>
+  <si>
+    <t>نان لواش</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>18:7:13</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>18:16:17</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>2250000</t>
+  </si>
+  <si>
+    <t>19:13:20</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>19:17:7</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6429,6 +6525,356 @@
         <v>24</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>524</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>525</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" t="s">
+        <v>526</v>
+      </c>
+      <c r="G138" t="s">
+        <v>527</v>
+      </c>
+      <c r="H138" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" t="s">
+        <v>124</v>
+      </c>
+      <c r="J138" t="s">
+        <v>528</v>
+      </c>
+      <c r="K138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>529</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>530</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" t="s">
+        <v>526</v>
+      </c>
+      <c r="G139" t="s">
+        <v>531</v>
+      </c>
+      <c r="H139" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" t="s">
+        <v>124</v>
+      </c>
+      <c r="J139" t="s">
+        <v>532</v>
+      </c>
+      <c r="K139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>533</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
+        <v>534</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>526</v>
+      </c>
+      <c r="G140" t="s">
+        <v>535</v>
+      </c>
+      <c r="H140" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" t="s">
+        <v>124</v>
+      </c>
+      <c r="J140" t="s">
+        <v>536</v>
+      </c>
+      <c r="K140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>537</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>538</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" t="s">
+        <v>526</v>
+      </c>
+      <c r="G141" t="s">
+        <v>539</v>
+      </c>
+      <c r="H141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" t="s">
+        <v>124</v>
+      </c>
+      <c r="J141" t="s">
+        <v>532</v>
+      </c>
+      <c r="K141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>540</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>541</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>526</v>
+      </c>
+      <c r="G142" t="s">
+        <v>542</v>
+      </c>
+      <c r="H142" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" t="s">
+        <v>124</v>
+      </c>
+      <c r="J142" t="s">
+        <v>543</v>
+      </c>
+      <c r="K142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>544</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" t="s">
+        <v>73</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>526</v>
+      </c>
+      <c r="G143" t="s">
+        <v>545</v>
+      </c>
+      <c r="H143" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" t="s">
+        <v>124</v>
+      </c>
+      <c r="J143" t="s">
+        <v>546</v>
+      </c>
+      <c r="K143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>547</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>53</v>
+      </c>
+      <c r="E144" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" t="s">
+        <v>526</v>
+      </c>
+      <c r="G144" t="s">
+        <v>548</v>
+      </c>
+      <c r="H144" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" t="s">
+        <v>124</v>
+      </c>
+      <c r="J144" t="s">
+        <v>198</v>
+      </c>
+      <c r="K144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>549</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>366</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
+        <v>526</v>
+      </c>
+      <c r="G145" t="s">
+        <v>550</v>
+      </c>
+      <c r="H145" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" t="s">
+        <v>124</v>
+      </c>
+      <c r="J145" t="s">
+        <v>198</v>
+      </c>
+      <c r="K145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>551</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>552</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>526</v>
+      </c>
+      <c r="G146" t="s">
+        <v>553</v>
+      </c>
+      <c r="H146" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" t="s">
+        <v>124</v>
+      </c>
+      <c r="J146" t="s">
+        <v>198</v>
+      </c>
+      <c r="K146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>554</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>232</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" t="s">
+        <v>526</v>
+      </c>
+      <c r="G147" t="s">
+        <v>555</v>
+      </c>
+      <c r="H147" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" t="s">
+        <v>124</v>
+      </c>
+      <c r="J147" t="s">
+        <v>546</v>
+      </c>
+      <c r="K147" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
